--- a/moyusi/Keywords/Web/业绩模块-订单量业绩.xlsx
+++ b/moyusi/Keywords/Web/业绩模块-订单量业绩.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="119">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-dialog__body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查点-编辑业绩窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[text()='订单量业绩']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入_classname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,39 +478,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if_文本不包含</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF如果有该元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击_className</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-collapse-item__header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-“业绩”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-订单量业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单量业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>else</t>
+    <t>//a[text()='订单量业绩']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-门店名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -653,6 +637,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -934,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1047,216 +1032,225 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="8" t="s">
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="D10" s="19"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="B15" s="15"/>
+      <c r="D15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
+      <c r="D16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="B17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="D18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="8" t="s">
+      <c r="B19" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="D19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="D20" s="21" t="s">
-        <v>35</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="14">
+        <v>3</v>
+      </c>
+      <c r="D20" s="21"/>
       <c r="E20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="D22" s="21" t="s">
-        <v>37</v>
-      </c>
+      <c r="B22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="21"/>
       <c r="E22" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -1273,52 +1267,57 @@
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="10"/>
+    <row r="25" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4</v>
+      </c>
+      <c r="D25" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>20</v>
+      <c r="A26" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B27" s="9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="8" t="s">
@@ -1327,45 +1326,35 @@
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>41</v>
+      <c r="A28" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="14">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="14">
-        <v>4</v>
-      </c>
-      <c r="D29" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="16"/>
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="14" t="s">
@@ -1373,419 +1362,422 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="9">
+      <c r="C31" s="14">
+        <v>5</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="14">
+        <v>5</v>
+      </c>
+      <c r="D32" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="9">
         <v>2000</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="8" t="s">
+      <c r="D34" s="19"/>
+      <c r="E34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="14">
-        <v>5</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="14">
-        <v>5</v>
-      </c>
-      <c r="D36" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="D36" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="C37" s="14">
+        <v>6</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="14" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="10"/>
+    <row r="38" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="14">
+        <v>6</v>
+      </c>
+      <c r="D38" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>20</v>
+      <c r="A39" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="23" t="s">
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="14">
-        <v>6</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="16"/>
+      <c r="E41" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="42" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C42" s="14">
-        <v>6</v>
-      </c>
-      <c r="D42" s="21">
-        <v>9999</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D42" s="21"/>
       <c r="E42" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="C43" s="14">
+        <v>7</v>
+      </c>
+      <c r="D43" s="21">
+        <v>9999</v>
+      </c>
       <c r="E43" s="14" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>20</v>
+      <c r="A44" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>55</v>
-      </c>
+    <row r="45" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>41</v>
+      <c r="A46" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="14">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="14" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="14">
-        <v>7</v>
-      </c>
-      <c r="D47" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="16"/>
+    <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="48" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="C48" s="14">
+        <v>8</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="14" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F48" s="16"/>
     </row>
-    <row r="49" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="8" t="s">
+    <row r="49" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="14">
         <v>8</v>
       </c>
-      <c r="F49" s="10"/>
+      <c r="D49" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>20</v>
+      <c r="A50" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F50" s="16"/>
     </row>
-    <row r="51" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>82</v>
-      </c>
+    <row r="51" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>41</v>
+      <c r="A52" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="14">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="14" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="14">
-        <v>8</v>
-      </c>
-      <c r="D53" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="16"/>
+    <row r="53" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="54" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="C54" s="14">
+        <v>9</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="14" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="10"/>
+      <c r="C55" s="14">
+        <v>9</v>
+      </c>
+      <c r="D55" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>20</v>
+      <c r="A56" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="14" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F56" s="16"/>
     </row>
-    <row r="57" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>55</v>
-      </c>
+    <row r="57" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>41</v>
+      <c r="A58" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="14">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F58" s="16"/>
     </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="14">
-        <v>9</v>
-      </c>
-      <c r="D59" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="16"/>
+    <row r="59" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="60" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>93</v>
+        <v>45</v>
+      </c>
+      <c r="C60" s="14">
+        <v>10</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="14" t="s">
@@ -1793,973 +1785,983 @@
       </c>
       <c r="F60" s="16"/>
     </row>
-    <row r="61" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="10"/>
+    <row r="61" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="14">
+        <v>10</v>
+      </c>
+      <c r="D61" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>77</v>
+      <c r="A62" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="14" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F62" s="16"/>
     </row>
-    <row r="63" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>55</v>
-      </c>
+    <row r="63" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="10"/>
     </row>
     <row r="64" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
-        <v>83</v>
+      <c r="A64" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="14">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="14" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F64" s="16"/>
     </row>
-    <row r="65" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="14">
-        <v>10</v>
-      </c>
-      <c r="D65" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F65" s="16"/>
+    <row r="65" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="66" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="C66" s="14">
+        <v>11</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="14" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F66" s="16"/>
     </row>
-    <row r="67" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="10"/>
+    <row r="67" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="14">
+        <v>11</v>
+      </c>
+      <c r="D67" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>20</v>
+      <c r="A68" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="14" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>82</v>
-      </c>
+    <row r="69" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="10"/>
     </row>
     <row r="70" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
-        <v>83</v>
+      <c r="A70" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="14">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="14" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F70" s="16"/>
     </row>
-    <row r="71" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" s="14">
-        <v>11</v>
-      </c>
-      <c r="D71" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F71" s="16"/>
+    <row r="71" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="72" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="C72" s="14">
+        <v>12</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F72" s="16"/>
     </row>
-    <row r="73" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="10"/>
+    <row r="73" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="14">
+        <v>12</v>
+      </c>
+      <c r="D73" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>77</v>
+      <c r="A74" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F74" s="16"/>
     </row>
-    <row r="75" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>82</v>
-      </c>
+    <row r="75" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
-        <v>41</v>
+      <c r="A76" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="14">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F76" s="16"/>
     </row>
-    <row r="77" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="14">
-        <v>12</v>
-      </c>
-      <c r="D77" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F77" s="16"/>
+    <row r="77" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="78" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="C78" s="14">
+        <v>13</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="14" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F78" s="16"/>
     </row>
-    <row r="79" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="10"/>
+    <row r="79" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="14">
+        <v>13</v>
+      </c>
+      <c r="D79" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>20</v>
+      <c r="A80" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="14" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F80" s="16"/>
     </row>
-    <row r="81" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>82</v>
-      </c>
+    <row r="81" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="10"/>
     </row>
     <row r="82" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
-        <v>41</v>
+      <c r="A82" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="14">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="14" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="F82" s="16"/>
     </row>
-    <row r="83" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="14">
-        <v>13</v>
-      </c>
-      <c r="D83" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F83" s="16"/>
+    <row r="83" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>93</v>
+        <v>45</v>
+      </c>
+      <c r="C84" s="14">
+        <v>14</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="14" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="10"/>
+    <row r="85" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="14">
+        <v>14</v>
+      </c>
+      <c r="D85" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>20</v>
+      <c r="A86" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>82</v>
-      </c>
+    <row r="87" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="10"/>
     </row>
     <row r="88" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
-        <v>41</v>
+      <c r="A88" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="14">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="14" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="14">
-        <v>14</v>
-      </c>
-      <c r="D89" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F89" s="16"/>
+    <row r="89" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="90" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="C90" s="14">
+        <v>15</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="14" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D91" s="19"/>
-      <c r="E91" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="10"/>
+    <row r="91" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="14">
+        <v>15</v>
+      </c>
+      <c r="D91" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" s="16"/>
     </row>
     <row r="92" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
-        <v>20</v>
+      <c r="A92" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="14" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F92" s="16"/>
     </row>
-    <row r="93" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>82</v>
-      </c>
+    <row r="93" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="10"/>
     </row>
     <row r="94" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
-        <v>41</v>
+      <c r="A94" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C94" s="14">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="14" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F94" s="16"/>
     </row>
-    <row r="95" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="14">
-        <v>15</v>
-      </c>
-      <c r="D95" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F95" s="16"/>
+    <row r="95" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="96" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="C96" s="14">
+        <v>16</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="14" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" s="10"/>
+    <row r="97" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" s="14">
+        <v>16</v>
+      </c>
+      <c r="D97" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F97" s="16"/>
     </row>
     <row r="98" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
-        <v>77</v>
+      <c r="A98" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="14" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F98" s="16"/>
     </row>
-    <row r="99" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>55</v>
-      </c>
+    <row r="99" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D99" s="19"/>
+      <c r="E99" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="10"/>
     </row>
     <row r="100" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
-        <v>83</v>
+      <c r="A100" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C100" s="14">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="14" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F100" s="16"/>
     </row>
-    <row r="101" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" s="14">
-        <v>16</v>
-      </c>
-      <c r="D101" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" s="16"/>
+    <row r="101" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="102" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="C102" s="14">
+        <v>17</v>
       </c>
       <c r="D102" s="21"/>
       <c r="E102" s="14" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
+    <row r="103" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B103" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" s="10"/>
+      <c r="C103" s="14">
+        <v>17</v>
+      </c>
+      <c r="D103" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F103" s="16"/>
     </row>
     <row r="104" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="s">
-        <v>77</v>
+      <c r="A104" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="14" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F104" s="16"/>
     </row>
-    <row r="105" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>82</v>
-      </c>
+    <row r="105" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D105" s="19"/>
+      <c r="E105" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="10"/>
     </row>
     <row r="106" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="14" t="s">
-        <v>41</v>
+      <c r="A106" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106" s="14">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="14" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F106" s="16"/>
     </row>
-    <row r="107" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" s="14">
-        <v>17</v>
-      </c>
-      <c r="D107" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F107" s="16"/>
+    <row r="107" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="108" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="C108" s="14">
+        <v>18</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="14" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F108" s="16"/>
     </row>
-    <row r="109" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="10"/>
+    <row r="109" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="14">
+        <v>18</v>
+      </c>
+      <c r="D109" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F109" s="16"/>
     </row>
     <row r="110" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
-        <v>20</v>
+      <c r="A110" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D110" s="21"/>
       <c r="E110" s="14" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F110" s="16"/>
     </row>
-    <row r="111" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>55</v>
-      </c>
+    <row r="111" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D111" s="19"/>
+      <c r="E111" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="10"/>
     </row>
     <row r="112" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="14" t="s">
-        <v>41</v>
+      <c r="A112" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C112" s="14">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D112" s="21"/>
       <c r="E112" s="14" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="F112" s="16"/>
     </row>
     <row r="113" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C113" s="14">
+        <v>67</v>
+      </c>
+      <c r="B113" s="15"/>
+      <c r="D113" s="21"/>
+      <c r="F113" s="16"/>
+    </row>
+    <row r="114" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D115" s="25"/>
+      <c r="E115" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D113" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F113" s="16"/>
-    </row>
-    <row r="114" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D114" s="21"/>
-      <c r="E114" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F114" s="16"/>
-    </row>
-    <row r="115" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="10"/>
-    </row>
-    <row r="116" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D116" s="21"/>
-      <c r="E116" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F116" s="16"/>
-    </row>
-    <row r="117" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B117" s="15"/>
-      <c r="D117" s="21"/>
-      <c r="F117" s="16"/>
-    </row>
-    <row r="118" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F118" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B119" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D119" s="25"/>
-      <c r="E119" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B120" s="13"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="22" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>24</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D123" s="19"/>
+      <c r="E123" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="10"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D124" s="22" t="s">
-        <v>26</v>
+      <c r="D124" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
+      <c r="A125" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" s="1">
+        <v>4</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B126" s="9">
         <v>3000</v>
       </c>
-      <c r="D127" s="19"/>
-      <c r="E127" s="8" t="s">
+      <c r="D126" s="19"/>
+      <c r="E126" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F127" s="10"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="21"/>
+      <c r="E127" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F127" s="16"/>
+    </row>
+    <row r="128" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D128" s="19"/>
+      <c r="E128" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="10"/>
+    </row>
+    <row r="129" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C129" s="1">
-        <v>4</v>
-      </c>
+      <c r="B129" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="14">
+        <v>5</v>
+      </c>
+      <c r="D129" s="21"/>
       <c r="E129" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B130" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D130" s="19"/>
-      <c r="E130" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="F129" s="16"/>
+    </row>
+    <row r="130" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" s="14">
+        <v>5</v>
+      </c>
+      <c r="D130" s="21">
+        <v>1001</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F130" s="16"/>
     </row>
     <row r="131" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B131" s="15" t="s">
-        <v>61</v>
+      <c r="B131" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F131" s="16"/>
     </row>
@@ -2775,66 +2777,6 @@
         <v>8</v>
       </c>
       <c r="F132" s="10"/>
-    </row>
-    <row r="133" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C133" s="14">
-        <v>5</v>
-      </c>
-      <c r="D133" s="21"/>
-      <c r="E133" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F133" s="16"/>
-    </row>
-    <row r="134" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C134" s="14">
-        <v>5</v>
-      </c>
-      <c r="D134" s="21">
-        <v>1001</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F134" s="16"/>
-    </row>
-    <row r="135" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B135" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D135" s="21"/>
-      <c r="E135" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F135" s="16"/>
-    </row>
-    <row r="136" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D136" s="19"/>
-      <c r="E136" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F136" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/moyusi/Keywords/Web/业绩模块-订单量业绩.xlsx
+++ b/moyusi/Keywords/Web/业绩模块-订单量业绩.xlsx
@@ -117,13 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>带客业绩</t>
-  </si>
-  <si>
-    <t>检查点-带客业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select-time</t>
   </si>
   <si>
@@ -160,18 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>带客新业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带客新业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-带客新业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按周按月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -503,6 +484,26 @@
   </si>
   <si>
     <t>编辑业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带客数业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-带客数业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单新业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单新业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-订单新业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -638,6 +639,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -922,7 +924,7 @@
   <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:XFD120"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1007,10 +1009,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1037,11 +1039,11 @@
         <v>20</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -1090,14 +1092,14 @@
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>26</v>
+      <c r="D11" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>26</v>
+        <v>115</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1105,13 +1107,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1119,10 +1121,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -1145,13 +1147,13 @@
       </c>
       <c r="B15" s="15"/>
       <c r="D15" s="21" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1160,13 +1162,13 @@
       </c>
       <c r="B16" s="15"/>
       <c r="D16" s="21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1174,11 +1176,11 @@
         <v>20</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -1188,13 +1190,13 @@
       </c>
       <c r="B18" s="15"/>
       <c r="D18" s="21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1212,17 +1214,17 @@
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C20" s="14">
         <v>3</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -1244,11 +1246,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -1267,26 +1269,26 @@
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C24" s="14">
         <v>4</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C25" s="14">
         <v>4</v>
@@ -1295,26 +1297,26 @@
         <v>9999</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B27" s="9">
         <v>2000</v>
@@ -1327,63 +1329,63 @@
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="E29" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C31" s="14">
         <v>5</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C32" s="14">
         <v>5</v>
@@ -1392,26 +1394,26 @@
         <v>9999</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B34" s="9">
         <v>2000</v>
@@ -1427,47 +1429,47 @@
         <v>20</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C37" s="14">
         <v>6</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C38" s="14">
         <v>6</v>
@@ -1476,20 +1478,20 @@
         <v>9999</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F39" s="16"/>
     </row>
@@ -1498,47 +1500,47 @@
         <v>20</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="E41" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C42" s="14">
         <v>7</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C43" s="14">
         <v>7</v>
@@ -1547,26 +1549,26 @@
         <v>9999</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B45" s="9">
         <v>2000</v>
@@ -1582,47 +1584,47 @@
         <v>20</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="E47" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C48" s="14">
         <v>8</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C49" s="14">
         <v>8</v>
@@ -1631,26 +1633,26 @@
         <v>9999</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F50" s="16"/>
     </row>
     <row r="51" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B51" s="9">
         <v>2000</v>
@@ -1666,47 +1668,47 @@
         <v>20</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="E53" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C54" s="14">
         <v>9</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C55" s="14">
         <v>9</v>
@@ -1715,20 +1717,20 @@
         <v>9999</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F55" s="16"/>
     </row>
     <row r="56" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F56" s="16"/>
     </row>
@@ -1747,50 +1749,50 @@
     </row>
     <row r="58" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F58" s="16"/>
     </row>
     <row r="59" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="E59" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C60" s="14">
         <v>10</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C61" s="14">
         <v>10</v>
@@ -1799,20 +1801,20 @@
         <v>9999</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F62" s="16"/>
     </row>
@@ -1834,47 +1836,47 @@
         <v>20</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="E65" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C66" s="14">
         <v>11</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C67" s="14">
         <v>11</v>
@@ -1883,20 +1885,20 @@
         <v>9999</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F68" s="16"/>
     </row>
@@ -1915,50 +1917,50 @@
     </row>
     <row r="70" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D71" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="E71" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C72" s="14">
         <v>12</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C73" s="14">
         <v>12</v>
@@ -1967,20 +1969,20 @@
         <v>9999</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F74" s="16"/>
     </row>
@@ -2002,47 +2004,47 @@
         <v>20</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="E77" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C78" s="14">
         <v>13</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F78" s="16"/>
     </row>
     <row r="79" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C79" s="14">
         <v>13</v>
@@ -2051,20 +2053,20 @@
         <v>9999</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F80" s="16"/>
     </row>
@@ -2086,47 +2088,47 @@
         <v>20</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C84" s="14">
         <v>14</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F84" s="16"/>
     </row>
     <row r="85" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C85" s="14">
         <v>14</v>
@@ -2135,20 +2137,20 @@
         <v>9999</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F86" s="16"/>
     </row>
@@ -2170,47 +2172,47 @@
         <v>20</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F88" s="16"/>
     </row>
     <row r="89" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="E89" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C90" s="14">
         <v>15</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C91" s="14">
         <v>15</v>
@@ -2219,20 +2221,20 @@
         <v>9999</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F91" s="16"/>
     </row>
     <row r="92" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F92" s="16"/>
     </row>
@@ -2251,50 +2253,50 @@
     </row>
     <row r="94" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C96" s="14">
         <v>16</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F96" s="16"/>
     </row>
     <row r="97" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C97" s="14">
         <v>16</v>
@@ -2303,26 +2305,26 @@
         <v>9999</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F97" s="16"/>
     </row>
     <row r="98" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F98" s="16"/>
     </row>
     <row r="99" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B99" s="9">
         <v>2000</v>
@@ -2335,50 +2337,50 @@
     </row>
     <row r="100" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F100" s="16"/>
     </row>
     <row r="101" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D101" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="E101" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C102" s="14">
         <v>17</v>
       </c>
       <c r="D102" s="21"/>
       <c r="E102" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="C103" s="14">
         <v>17</v>
@@ -2387,20 +2389,20 @@
         <v>9999</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F103" s="16"/>
     </row>
     <row r="104" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F104" s="16"/>
     </row>
@@ -2422,47 +2424,47 @@
         <v>20</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F106" s="16"/>
     </row>
     <row r="107" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D107" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="E107" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C108" s="14">
         <v>18</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F108" s="16"/>
     </row>
     <row r="109" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C109" s="14">
         <v>18</v>
@@ -2471,20 +2473,20 @@
         <v>9999</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F109" s="16"/>
     </row>
     <row r="110" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D110" s="21"/>
       <c r="E110" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F110" s="16"/>
     </row>
@@ -2506,17 +2508,17 @@
         <v>20</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D112" s="21"/>
       <c r="E112" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F112" s="16"/>
     </row>
     <row r="113" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B113" s="15"/>
       <c r="D113" s="21"/>
@@ -2524,13 +2526,13 @@
     </row>
     <row r="114" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -2538,11 +2540,11 @@
         <v>20</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="24" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2601,13 +2603,13 @@
         <v>9</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -2615,27 +2617,27 @@
         <v>19</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C122" s="1">
         <v>0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2656,27 +2658,27 @@
         <v>9</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C125" s="1">
         <v>4</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2697,11 +2699,11 @@
         <v>20</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D127" s="21"/>
       <c r="E127" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F127" s="16"/>
     </row>
@@ -2720,26 +2722,26 @@
     </row>
     <row r="129" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C129" s="14">
         <v>5</v>
       </c>
       <c r="D129" s="21"/>
       <c r="E129" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F129" s="16"/>
     </row>
     <row r="130" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C130" s="14">
         <v>5</v>
@@ -2748,7 +2750,7 @@
         <v>1001</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F130" s="16"/>
     </row>
@@ -2757,11 +2759,11 @@
         <v>20</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F131" s="16"/>
     </row>
